--- a/dados/bestonline.com.br.xlsx
+++ b/dados/bestonline.com.br.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -463,50 +473,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>805.59</v>
+        <v>634.4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:364700292#searchVariation=MLB21348561&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:364700292#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>634.4</v>
+        <v>805.59</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:364700292#searchVariation=MLB21392652&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:364700292#searchVariation=MLB21348561&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -521,17 +551,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:364700292#searchVariation=MLB27970249&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:364700292#searchVariation=MLB27970249&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -546,17 +582,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:364700292#searchVariation=MLB24154371&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:364700292#searchVariation=MLB24154371&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -571,17 +617,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:364700292#searchVariation=MLB21455208&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:364700292#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -596,17 +652,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:364700292#searchVariation=MLB21621306&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:364700292#searchVariation=MLB21621306&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -621,17 +687,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:364700292#searchVariation=MLB23456525&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:364700292#searchVariation=MLB23456525&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -646,17 +722,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:364700292#searchVariation=MLB21320712&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:364700292#searchVariation=MLB21320712&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -671,17 +757,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:364700292#searchVariation=MLB32364344&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:364700292#searchVariation=MLB32364344&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -696,17 +788,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:364700292#searchVariation=MLB24006449&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:364700292#searchVariation=MLB24006449&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -721,17 +823,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:364700292#searchVariation=MLB22144397&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:364700292#searchVariation=MLB22144397&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -746,17 +858,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:364700292#searchVariation=MLB28722231&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:364700292#searchVariation=MLB28722231&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -771,17 +889,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:364700292#searchVariation=MLB21562641&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:364700292#searchVariation=MLB21562641&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -796,17 +924,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:364700292#searchVariation=MLB23998473&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:364700292#searchVariation=MLB23998473&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -821,17 +959,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:364700292#searchVariation=MLB33435981&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:364700292#searchVariation=MLB33435981&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -846,17 +990,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:364700292#searchVariation=MLB28357019&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:364700292#searchVariation=MLB28357019&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -871,17 +1021,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:364700292#searchVariation=MLB26091477&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:364700292#searchVariation=MLB26091477&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -896,17 +1056,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:364700292#searchVariation=MLB30476096&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:364700292#searchVariation=MLB30476096&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -921,17 +1087,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:364700292#searchVariation=MLB31403178&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:364700292#searchVariation=MLB31403178&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -946,17 +1118,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3324168339-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3324168339-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -971,17 +1153,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3355036433-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3355036433-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -996,17 +1188,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620703501-fonte-automotiva-120-amper-jfa-storm-red-line-cca-sci-smart-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2620703501-fonte-automotiva-120-amper-jfa-storm-red-line-cca-sci-smart-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1223,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683500517-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3683500517-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1258,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4663704978-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4663704978-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1293,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620719084-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2620719084-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1328,23 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127196874-adaptador-fio-conversor-rca-remoto-slim-jfa-12v-conversor-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127196874-adaptador-fio-conversor-rca-remoto-slim-jfa-12v-conversor-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1359,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4663589138-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4663589138-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1146,17 +1394,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620680945-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2620680945-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1429,23 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:364700292#searchVariation=MLB30464905&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:364700292#searchVariation=MLB30464905&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1460,23 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB36743886?pdp_filters=seller_id:364700292#searchVariation=MLB36743886&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB36743886?pdp_filters=seller_id:364700292#searchVariation=MLB36743886&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1491,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683493405-fonte-carregador-automotiva-jfa-storm-200a-bivolt-voltimetro-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3683493405-fonte-carregador-automotiva-jfa-storm-200a-bivolt-voltimetro-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1246,17 +1526,23 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3548300603-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3548300603-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1557,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208214139-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2208214139-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1592,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3471415308-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3471415308-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1627,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3288732631-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3288732631-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1346,17 +1662,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2194676996-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2194676996-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1371,17 +1697,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3324059527-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3324059527-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1732,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620696614-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2620696614-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1767,23 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-k1200-azul-alcance-1200/p/MLB28445719?pdp_filters=seller_id:364700292#searchVariation=MLB28445719&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-k1200-azul-alcance-1200/p/MLB28445719?pdp_filters=seller_id:364700292#searchVariation=MLB28445719&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1446,17 +1798,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3324128025-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3324128025-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1471,17 +1833,23 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3548289499-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3548289499-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1864,23 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1913837885-controle-longa-distancia-jfa-redline-wr-aparelho-original-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1913837885-controle-longa-distancia-jfa-redline-wr-aparelho-original-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1521,17 +1895,23 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-estereo-jfa-k600-pioneersony-p-cor-pretoazul/p/MLB27373663?pdp_filters=seller_id:364700292#searchVariation=MLB27373663&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-estereo-jfa-k600-pioneersony-p-cor-pretoazul/p/MLB27373663?pdp_filters=seller_id:364700292#searchVariation=MLB27373663&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1546,17 +1926,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620720938-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2620720938-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1571,17 +1961,23 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127190203-kit-2-controle-jfa1200-metros-longa-distancia-vermelho-k1200-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127190203-kit-2-controle-jfa1200-metros-longa-distancia-vermelho-k1200-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1596,17 +1992,23 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127180392-kit-2-controle-longa-distancia-jfa-k1200-1200-metros-azul-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127180392-kit-2-controle-longa-distancia-jfa-k1200-1200-metros-azul-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1621,17 +2023,23 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127192707-2-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127192707-2-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>
@@ -1646,17 +2054,23 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127188415-kit-2-controle-remot-longa-distancia-jfa-k600-preto-laranja-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5dd05d3e-ec04-4199-bd0a-519066d6e290</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127188415-kit-2-controle-remot-longa-distancia-jfa-k600-preto-laranja-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
         </is>
       </c>
     </row>

--- a/dados/bestonline.com.br.xlsx
+++ b/dados/bestonline.com.br.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,14 +476,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>634.4</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -491,7 +491,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:364700292#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:364700292#searchVariation=MLB21392652&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -511,14 +511,14 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>805.59</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -526,7 +526,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:364700292#searchVariation=MLB21348561&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:364700292#searchVariation=MLB21348561&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -546,13 +546,13 @@
           <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>126</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
@@ -567,23 +567,23 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:364700292#searchVariation=MLB27970249&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:364700292#searchVariation=MLB27970249&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>681.83</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>493.42</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -602,23 +602,23 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:364700292#searchVariation=MLB24154371&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:364700292#searchVariation=MLB21455208&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>493.42</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>402.79</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -637,27 +637,27 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:364700292#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:364700292#searchVariation=MLB21621306&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>402.79</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>326.53</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -672,23 +672,23 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:364700292#searchVariation=MLB21621306&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:364700292#searchVariation=MLB23456525&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>364.95</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>443.07</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -707,27 +707,27 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:364700292#searchVariation=MLB23456525&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:364700292#searchVariation=MLB21320712&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>479.81</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:364700292#searchVariation=MLB21320712&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:364700292#searchVariation=MLB23998473&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -752,13 +752,13 @@
           <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>89</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -773,32 +773,32 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:364700292#searchVariation=MLB32364344&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:364700292#searchVariation=MLB32364344&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>610.0599999999999</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -808,32 +808,28 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:364700292#searchVariation=MLB24006449&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:364700292#searchVariation=MLB24154371&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>499.46</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>736.61</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -843,28 +839,32 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:364700292#searchVariation=MLB22144397&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:364700292#searchVariation=MLB24006449&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>130</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>499.46</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -874,29 +874,25 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:364700292#searchVariation=MLB28722231&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:364700292#searchVariation=MLB22144397&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>422.93</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>130</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -909,23 +905,23 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:364700292#searchVariation=MLB21562641&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:364700292#searchVariation=MLB28722231&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>536.26</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>422.93</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -944,23 +940,23 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:364700292#searchVariation=MLB23998473&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:364700292#searchVariation=MLB21562641&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>402.79</v>
-      </c>
-      <c r="C16" t="inlineStr">
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C16" t="n">
+        <v>74</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -975,23 +971,23 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:364700292#searchVariation=MLB33435981&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:364700292#searchVariation=MLB28357019&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>74</v>
-      </c>
-      <c r="C17" t="inlineStr">
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C17" t="n">
+        <v>402.79</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -1006,7 +1002,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:364700292#searchVariation=MLB28357019&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:364700292#searchVariation=MLB33435981&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -1016,14 +1012,14 @@
           <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>845.87</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1041,7 +1037,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:364700292#searchVariation=MLB26091477&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:364700292#searchVariation=MLB26091477&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -1051,13 +1047,13 @@
           <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>74</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
@@ -1072,7 +1068,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:364700292#searchVariation=MLB30476096&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:364700292#searchVariation=MLB30476096&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -1082,13 +1078,13 @@
           <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>126</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -1103,7 +1099,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:364700292#searchVariation=MLB31403178&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:364700292#searchVariation=MLB31403178&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -1113,17 +1109,17 @@
           <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>716.71</v>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>FONTE 200A LITE</t>
         </is>
       </c>
+      <c r="C21" t="n">
+        <v>641.27</v>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1138,7 +1134,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3324168339-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3324168339-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -1148,14 +1144,14 @@
           <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>443.07</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1173,23 +1169,23 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3355036433-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3355036433-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 Amper Jfa Storm Red Line Cca Sci Smart</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>473.28</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1208,23 +1204,23 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620703501-fonte-automotiva-120-amper-jfa-storm-red-line-cca-sci-smart-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683500517-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>473.28</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
+          <t>Fonte Automotiva 120 Amper Jfa Storm Red Line Cca Sci Smart</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1243,7 +1239,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683500517-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2620703501-fonte-automotiva-120-amper-jfa-storm-red-line-cca-sci-smart-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -1253,14 +1249,14 @@
           <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>539.74</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1278,7 +1274,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4663704978-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4663704978-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -1288,14 +1284,14 @@
           <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>433</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1313,7 +1309,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620719084-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2620719084-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -1323,13 +1319,13 @@
           <t>Adaptador Fio Conversor Rca Remoto Slim Jfa 12v Conversor</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>47.15</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
@@ -1344,7 +1340,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127196874-adaptador-fio-conversor-rca-remoto-slim-jfa-12v-conversor-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1127196874-adaptador-fio-conversor-rca-remoto-slim-jfa-12v-conversor-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -1354,14 +1350,14 @@
           <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>499.46</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1379,32 +1375,28 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4663589138-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4663589138-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>402.79</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>736.61</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1414,23 +1406,23 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620680945-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:364700292#searchVariation=MLB30464905&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="C30" t="inlineStr">
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C30" t="n">
+        <v>66.2</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
@@ -1440,30 +1432,34 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:364700292#searchVariation=MLB30464905&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB36743886?pdp_filters=seller_id:364700292#searchVariation=MLB36743886&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>349.33</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1476,7 +1472,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB36743886?pdp_filters=seller_id:364700292#searchVariation=MLB36743886&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3471415308-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -1486,14 +1482,14 @@
           <t>Fonte Carregador Automotiva Jfa Storm 200a Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>805.59</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1511,7 +1507,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683493405-fonte-carregador-automotiva-jfa-storm-200a-bivolt-voltimetro-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683493405-fonte-carregador-automotiva-jfa-storm-200a-bivolt-voltimetro-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -1521,13 +1517,13 @@
           <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>774.88</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
@@ -1542,23 +1538,23 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3548300603-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3548300603-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>774.88</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
+          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>443.07</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1572,32 +1568,32 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208214139-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2194676996-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>390.43</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>513</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1612,23 +1608,23 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3471415308-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3288732631-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>573.36</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>402.79</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1642,34 +1638,30 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3288732631-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2620680945-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>774.88</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1677,12 +1669,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2194676996-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2208214139-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -1692,17 +1684,17 @@
           <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>408.73</v>
-      </c>
-      <c r="C38" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>FONTE 70A LITE</t>
         </is>
       </c>
+      <c r="C38" t="n">
+        <v>365.71</v>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1717,7 +1709,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3324059527-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3324059527-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -1727,14 +1719,14 @@
           <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>493.42</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1752,7 +1744,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620696614-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2620696614-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -1762,13 +1754,13 @@
           <t>Kit 2 Controles Longa Distancia Jfa K1200 Azul Alcance 1200</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>182.6</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
@@ -1783,7 +1775,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-k1200-azul-alcance-1200/p/MLB28445719?pdp_filters=seller_id:364700292#searchVariation=MLB28445719&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-k1200-azul-alcance-1200/p/MLB28445719?pdp_filters=seller_id:364700292#searchVariation=MLB28445719&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -1793,17 +1785,17 @@
           <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>681.83</v>
-      </c>
-      <c r="C41" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>FONTE 200A LITE</t>
         </is>
       </c>
+      <c r="C41" t="n">
+        <v>610.0599999999999</v>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1818,7 +1810,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3324128025-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3324128025-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -1828,13 +1820,13 @@
           <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
         <v>736.61</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
@@ -1849,7 +1841,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3548289499-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3548289499-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -1859,13 +1851,13 @@
           <t>Controle Longa Distancia Jfa Redline Wr Aparelho Original</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
         <v>153</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
@@ -1880,7 +1872,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1913837885-controle-longa-distancia-jfa-redline-wr-aparelho-original-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1913837885-controle-longa-distancia-jfa-redline-wr-aparelho-original-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -1890,13 +1882,13 @@
           <t>Controle remoto estéreo Jfa K600 Pioneer/Sony P Cor preto/azul</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
         <v>126</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
@@ -1911,7 +1903,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-estereo-jfa-k600-pioneersony-p-cor-pretoazul/p/MLB27373663?pdp_filters=seller_id:364700292#searchVariation=MLB27373663&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-estereo-jfa-k600-pioneersony-p-cor-pretoazul/p/MLB27373663?pdp_filters=seller_id:364700292#searchVariation=MLB27373663&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -1921,14 +1913,14 @@
           <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
         <v>523.63</v>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1946,7 +1938,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620720938-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2620720938-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -1956,13 +1948,13 @@
           <t>Kit 2 Controle Jfa1200 Metros Longa Distancia Vermelho K1200</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>195.9</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
@@ -1977,7 +1969,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127190203-kit-2-controle-jfa1200-metros-longa-distancia-vermelho-k1200-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1127190203-kit-2-controle-jfa1200-metros-longa-distancia-vermelho-k1200-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -1987,13 +1979,13 @@
           <t>Kit 2 Controle Longa Distancia Jfa K1200 1200 Metros Azul</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
         <v>195.9</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
@@ -2008,7 +2000,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127180392-kit-2-controle-longa-distancia-jfa-k1200-1200-metros-azul-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1127180392-kit-2-controle-longa-distancia-jfa-k1200-1200-metros-azul-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2010,13 @@
           <t>2 Controle Longa Distancia Jfa K600 Cores Branco Tc Cinza</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
         <v>180.85</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
@@ -2039,7 +2031,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127192707-2-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1127192707-2-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>
@@ -2049,13 +2041,13 @@
           <t>Kit 2 Controle Remot Longa Distancia Jfa K600  Preto Laranja</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
         <v>180</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
@@ -2070,7 +2062,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127188415-kit-2-controle-remot-longa-distancia-jfa-k600-preto-laranja-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D586e07a3-dd96-44fa-9c7b-9166b650f8db</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1127188415-kit-2-controle-remot-longa-distancia-jfa-k600-preto-laranja-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
         </is>
       </c>
     </row>

--- a/dados/bestonline.com.br.xlsx
+++ b/dados/bestonline.com.br.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,16 +473,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>634.4</v>
+        <v>805.59</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -491,7 +491,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,23 +501,23 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:364700292#searchVariation=MLB21392652&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:364700292#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>805.59</v>
+        <v>634.4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,25 +536,29 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:364700292#searchVariation=MLB21348561&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:364700292#searchVariation=MLB21392652&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>126</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>681.83</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -567,32 +571,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:364700292#searchVariation=MLB27970249&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:364700292#searchVariation=MLB24154371&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>493.42</v>
+        <v>126</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -602,23 +606,23 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:364700292#searchVariation=MLB21455208&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:364700292#searchVariation=MLB27970249&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>402.79</v>
+        <v>493.42</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -627,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -637,27 +641,27 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:364700292#searchVariation=MLB21621306&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:364700292#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>326.53</v>
+        <v>422.93</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -672,23 +676,23 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:364700292#searchVariation=MLB23456525&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:364700292#searchVariation=MLB21562641&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>443.07</v>
+        <v>402.79</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -707,27 +711,27 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:364700292#searchVariation=MLB21320712&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:364700292#searchVariation=MLB21621306&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>479.81</v>
+        <v>443.07</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -742,7 +746,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:364700292#searchVariation=MLB23998473&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:364700292#searchVariation=MLB21320712&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
@@ -754,13 +758,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>89</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>NA</t>
@@ -773,32 +781,32 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:364700292#searchVariation=MLB32364344&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:364700292#searchVariation=MLB32364344&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>610.0599999999999</v>
+        <v>736.61</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -808,28 +816,32 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:364700292#searchVariation=MLB24154371&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:364700292#searchVariation=MLB24006449&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>499.46</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -839,32 +851,32 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:364700292#searchVariation=MLB24006449&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:364700292#searchVariation=MLB22144397&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>499.46</v>
+        <v>74</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -874,25 +886,29 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:364700292#searchVariation=MLB22144397&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:364700292#searchVariation=MLB28357019&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>130</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>536.26</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -905,27 +921,27 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:364700292#searchVariation=MLB28722231&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:364700292#searchVariation=MLB23998473&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>422.93</v>
+        <v>74</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -940,14 +956,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:364700292#searchVariation=MLB21562641&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:364700292#searchVariation=MLB30476096&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -956,7 +972,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>74</v>
+        <v>402.79</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -971,25 +987,29 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:364700292#searchVariation=MLB28357019&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:364700292#searchVariation=MLB33435981&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>402.79</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>845.87</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>NA</t>
@@ -997,32 +1017,32 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:364700292#searchVariation=MLB33435981&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:364700292#searchVariation=MLB26091477&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>845.87</v>
+        <v>126</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1032,30 +1052,34 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:364700292#searchVariation=MLB26091477&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:364700292#searchVariation=MLB31403178&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>74</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>716.71</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1063,30 +1087,34 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:364700292#searchVariation=MLB30476096&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3324168339-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>126</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>443.07</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1094,32 +1122,32 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:364700292#searchVariation=MLB31403178&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3355036433-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>641.27</v>
+        <v>473.28</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1134,23 +1162,23 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3324168339-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683500517-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>443.07</v>
+        <v>539.74</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1169,23 +1197,23 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3355036433-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4663704978-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>473.28</v>
+        <v>433</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1204,23 +1232,23 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683500517-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2620719084-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 Amper Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>674.6799999999999</v>
+        <v>499.46</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1234,34 +1262,30 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620703501-fonte-automotiva-120-amper-jfa-storm-red-line-cca-sci-smart-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4663589138-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+          <t>Adaptador Fio Conversor Rca Remoto Slim Jfa 12v Conversor</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>539.74</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>47.15</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1269,28 +1293,28 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4663704978-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1127196874-adaptador-fio-conversor-rca-remoto-slim-jfa-12v-conversor-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Automotiva 120 Amper Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>433</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1309,25 +1333,29 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620719084-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2620703501-fonte-automotiva-120-amper-jfa-storm-red-line-cca-sci-smart-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Adaptador Fio Conversor Rca Remoto Slim Jfa 12v Conversor</t>
+          <t>Fonte Carregador Automotiva Jfa Storm 200a Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>47.15</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
+        <v>805.59</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1340,23 +1368,23 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127196874-adaptador-fio-conversor-rca-remoto-slim-jfa-12v-conversor-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683493405-fonte-carregador-automotiva-jfa-storm-200a-bivolt-voltimetro-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>499.46</v>
+        <v>774.88</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1370,12 +1398,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4663589138-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2208214139-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1424,7 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1406,25 +1434,29 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:364700292#searchVariation=MLB30464905&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:364700292#searchVariation=MLB30464905&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>573.36</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1437,27 +1469,27 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB36743886?pdp_filters=seller_id:364700292#searchVariation=MLB36743886&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3288732631-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>349.33</v>
+        <v>402.79</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1467,28 +1499,28 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3471415308-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2620680945-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa Storm 200a Bivolt Voltímetro</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>805.59</v>
+        <v>493.42</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1507,25 +1539,29 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683493405-fonte-carregador-automotiva-jfa-storm-200a-bivolt-voltimetro-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2620696614-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
+          <t>Controle Longa Distancia Jfa Redline Wr Aparelho Original</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>774.88</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1538,23 +1574,23 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3548300603-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1913837885-controle-longa-distancia-jfa-redline-wr-aparelho-original-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>443.07</v>
+        <v>681.83</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1573,27 +1609,27 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2194676996-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3324128025-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+          <t>Controle Remoto Longa Distancia Jfa K600 Preto Tc Azul</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>513</v>
+        <v>138</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1608,29 +1644,25 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3288732631-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-tc-azul/p/MLB30188946?pdp_filters=seller_id:364700292#searchVariation=MLB30188946&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>402.79</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>774.88</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1638,30 +1670,34 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620680945-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3548300603-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>774.88</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
+        <v>523.63</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1674,29 +1710,25 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208214139-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2620720938-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>365.71</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>736.61</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1709,27 +1741,27 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3324059527-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3548289499-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>2 Controle Longa Distancia Jfa K600 Cores Branco Tc Cinza</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>493.42</v>
+        <v>180.85</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1739,30 +1771,34 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620696614-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1127192707-2-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Kit 2 Controles Longa Distancia Jfa K1200 Azul Alcance 1200</t>
+          <t>Kit 2 Controle Remot Longa Distancia Jfa K600  Preto Laranja</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>182.6</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
+        <v>180</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1770,32 +1806,32 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-k1200-azul-alcance-1200/p/MLB28445719?pdp_filters=seller_id:364700292#searchVariation=MLB28445719&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1127188415-kit-2-controle-remot-longa-distancia-jfa-k600-preto-laranja-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
+          <t>Kit Com 2 Controles Longa Distancia Jfa Preto Com Azul K600</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>610.0599999999999</v>
+        <v>168.6</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1810,25 +1846,29 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3324128025-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://www.mercadolivre.com.br/kit-com-2-controles-longa-distancia-jfa-preto-com-azul-k600/p/MLB28724602?pdp_filters=seller_id:364700292#searchVariation=MLB28724602&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
+          <t>Controle Longa Distancia Jfa K600 ( Preto Com Cinza )</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
+        <v>138</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1836,30 +1876,34 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3548289499-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1127191372-controle-longa-distancia-jfa-k600-preto-com-cinza--_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr Aparelho Original</t>
+          <t>2 Controle Longa Distancia Jfa K600 Cores Branco Tc Cinza</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>153</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
+        <v>168.6</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1867,30 +1911,34 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1913837885-controle-longa-distancia-jfa-redline-wr-aparelho-original-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1127195780-2-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Controle remoto estéreo Jfa K600 Pioneer/Sony P Cor preto/azul</t>
+          <t>Kit 2 Controle Remot Longa Distancia Jfa K600  Preto Laranja</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>126</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>168.6</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1903,23 +1951,23 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-estereo-jfa-k600-pioneersony-p-cor-pretoazul/p/MLB27373663?pdp_filters=seller_id:364700292#searchVariation=MLB27373663&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1127199378-kit-2-controle-remot-longa-distancia-jfa-k600-preto-laranja-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>523.63</v>
+        <v>443.07</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1933,30 +1981,34 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620720938-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2194676996-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Kit 2 Controle Jfa1200 Metros Longa Distancia Vermelho K1200</t>
+          <t>Controle remoto estéreo Jfa K600 Pioneer/Sony P Cor preto/azul</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1964,105 +2016,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127190203-kit-2-controle-jfa1200-metros-longa-distancia-vermelho-k1200-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Kit 2 Controle Longa Distancia Jfa K1200 1200 Metros Azul</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127180392-kit-2-controle-longa-distancia-jfa-k1200-1200-metros-azul-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2 Controle Longa Distancia Jfa K600 Cores Branco Tc Cinza</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>180.85</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127192707-2-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Kit 2 Controle Remot Longa Distancia Jfa K600  Preto Laranja</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>180</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127188415-kit-2-controle-remot-longa-distancia-jfa-k600-preto-laranja-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D639f0b47-8637-42d7-870a-b64840f95f13</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-estereo-jfa-k600-pioneersony-p-cor-pretoazul/p/MLB27373663?pdp_filters=seller_id:364700292#searchVariation=MLB27373663&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
         </is>
       </c>
     </row>

--- a/dados/bestonline.com.br.xlsx
+++ b/dados/bestonline.com.br.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,1555 +483,2042 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>805.59</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>681.83</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:364700292#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:364700292#searchVariation=MLB24154371&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>634.4</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>805.59</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:364700292#searchVariation=MLB21392652&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:364700292#searchVariation=MLB21348561&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>681.83</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>634.4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:364700292#searchVariation=MLB24154371&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:364700292#searchVariation=MLB21392652&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>126</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>493.42</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:364700292#searchVariation=MLB27970249&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:364700292#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>493.42</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>402.79</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:364700292#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:364700292#searchVariation=MLB21621306&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>422.93</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>132.5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:364700292#searchVariation=MLB21562641&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:364700292#searchVariation=MLB27687422&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>402.79</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>422.93</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:364700292#searchVariation=MLB21621306&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:364700292#searchVariation=MLB21562641&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>443.07</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>364.95</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:364700292#searchVariation=MLB21320712&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:364700292#searchVariation=MLB23456525&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>89</v>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="n">
+        <v>126</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:364700292#searchVariation=MLB32364344&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:364700292#searchVariation=MLB27970249&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>FONTE 200 MONO</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>736.61</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:364700292#searchVariation=MLB24006449&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:364700292#searchVariation=MLB24006449&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>FONTE 120 BOB</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="E12" t="n">
         <v>499.46</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:364700292#searchVariation=MLB22144397&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:364700292#searchVariation=MLB22144397&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>74</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>443.07</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:364700292#searchVariation=MLB28357019&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:364700292#searchVariation=MLB21320712&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>536.26</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>89</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:364700292#searchVariation=MLB23998473&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:364700292#searchVariation=MLB32364344&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>74</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>402.79</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:364700292#searchVariation=MLB30476096&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:364700292#searchVariation=MLB33435981&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>402.79</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>845.87</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:364700292#searchVariation=MLB33435981&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:364700292#searchVariation=MLB26091477&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>845.87</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>74</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:364700292#searchVariation=MLB26091477&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:364700292#searchVariation=MLB28357019&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>126</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>74</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:364700292#searchVariation=MLB31403178&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:364700292#searchVariation=MLB30476096&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>716.71</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>736.61</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3324168339-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:364700292#searchVariation=MLB30464905&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>443.07</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>126</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3355036433-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:364700292#searchVariation=MLB31403178&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>473.28</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>523.63</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683500517-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2620720938-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>539.74</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120 Amper Jfa Storm Red Line Cca Sci Smart</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4663704978-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2620703501-fonte-automotiva-120-amper-jfa-storm-red-line-cca-sci-smart-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>433</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>390.43</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620719084-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3471415308-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>FONTE 120 BOB</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>499.46</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E24" t="n">
+        <v>539.74</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4663589138-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4663704978-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Adaptador Fio Conversor Rca Remoto Slim Jfa 12v Conversor</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>47.15</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>402.79</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127196874-adaptador-fio-conversor-rca-remoto-slim-jfa-12v-conversor-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2620680945-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 Amper Jfa Storm Red Line Cca Sci Smart</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>674.6799999999999</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>473.28</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620703501-fonte-automotiva-120-amper-jfa-storm-red-line-cca-sci-smart-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3683500517-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa Storm 200a Bivolt Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>805.59</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>443.07</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683493405-fonte-carregador-automotiva-jfa-storm-200a-bivolt-voltimetro-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3355036433-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
         <v>774.88</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208214139-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3548300603-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>499.46</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:364700292#searchVariation=MLB30464905&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4663589138-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>573.36</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>433</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3288732631-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2620719084-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>402.79</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>101.85</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620680945-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127185963-filtro-jfa-anti-ruido-p-toca-cd-dvd-radio-player-modulo-som-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>493.42</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>716.71</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620696614-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3324168339-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr Aparelho Original</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>153</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa Storm 200a Bivolt Voltímetro</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>805.59</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1913837885-controle-longa-distancia-jfa-redline-wr-aparelho-original-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3683493405-fonte-carregador-automotiva-jfa-storm-200a-bivolt-voltimetro-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>681.83</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>443.07</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3324128025-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2194676996-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Controle Remoto Longa Distancia Jfa K600 Preto Tc Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>138</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>434.42</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-tc-azul/p/MLB30188946?pdp_filters=seller_id:364700292#searchVariation=MLB30188946&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3654416054-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>774.88</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>493.42</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3548300603-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2620696614-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>523.63</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Controle Remoto Longa Distancia Jfa K600 Preto Tc Azul</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>138</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620720938-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-tc-azul/p/MLB30188946?pdp_filters=seller_id:364700292#searchVariation=MLB30188946&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>681.83</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3548289499-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3324128025-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2 Controle Longa Distancia Jfa K600 Cores Branco Tc Cinza</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>180.85</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>408.73</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127192707-2-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3654445088-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Kit 2 Controle Remot Longa Distancia Jfa K600  Preto Laranja</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>180</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>736.61</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127188415-kit-2-controle-remot-longa-distancia-jfa-k600-preto-laranja-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3548289499-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Kit Com 2 Controles Longa Distancia Jfa Preto Com Azul K600</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>168.6</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-com-2-controles-longa-distancia-jfa-preto-com-azul-k600/p/MLB28724602?pdp_filters=seller_id:364700292#searchVariation=MLB28724602&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127195526-filtro-jfa-anti-ruido-p-toca-cd-dvd-radio-player-modulo-som-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 ( Preto Com Cinza )</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>138</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Adaptador Fio Conversor Rca Remoto Slim Jfa 12v Conversor</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>47.15</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127191372-controle-longa-distancia-jfa-k600-preto-com-cinza--_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127196874-adaptador-fio-conversor-rca-remoto-slim-jfa-12v-conversor-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2 Controle Longa Distancia Jfa K600 Cores Branco Tc Cinza</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Kit 2 Controle Remot Longa Distancia Jfa K600  Preto Laranja</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>168.6</v>
-      </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="n">
+        <v>180</v>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127195780-2-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127188415-kit-2-controle-remot-longa-distancia-jfa-k600-preto-laranja-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Kit 2 Controle Remot Longa Distancia Jfa K600  Preto Laranja</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>168.6</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>774.88</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127199378-kit-2-controle-remot-longa-distancia-jfa-k600-preto-laranja-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2208214139-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>443.07</v>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2 Controle Longa Distancia Jfa K600 Cores Branco Tc Cinza</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>180.85</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2194676996-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127192707-2-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Controle remoto estéreo Jfa K600 Pioneer/Sony P Cor preto/azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Kit Com 2 Controles Longa Distancia Jfa Preto Com Azul K600</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>126</v>
-      </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="n">
+        <v>168.6</v>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-estereo-jfa-k600-pioneersony-p-cor-pretoazul/p/MLB27373663?pdp_filters=seller_id:364700292#searchVariation=MLB27373663&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=3bfd94c0-cbe3-45bd-bef3-9f4d19f9a80b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-com-2-controles-longa-distancia-jfa-preto-com-azul-k600/p/MLB28724602?pdp_filters=seller_id:364700292#searchVariation=MLB28724602&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 ( Preto Com Cinza )</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>138</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127191372-controle-longa-distancia-jfa-k600-preto-com-cinza--_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
         </is>
       </c>
     </row>

--- a/dados/bestonline.com.br.xlsx
+++ b/dados/bestonline.com.br.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,42 +493,38 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>681.83</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>774.88</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:364700292#searchVariation=MLB24154371&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3548300603-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,42 +534,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>805.59</v>
+        <v>551.1900000000001</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:364700292#searchVariation=MLB21348561&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2620720938-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,25 +579,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>634.4</v>
+        <v>89</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -611,14 +607,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:364700292#searchVariation=MLB21392652&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:364700292#searchVariation=MLB32364344&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,20 +624,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>493.42</v>
+        <v>667.79</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -656,14 +652,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:364700292#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:364700292#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,42 +669,42 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>402.79</v>
+        <v>466.39</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:364700292#searchVariation=MLB21621306&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:364700292#searchVariation=MLB21562641&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,22 +714,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>402.79</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -741,19 +733,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:364700292#searchVariation=MLB27687422&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:364700292#searchVariation=MLB33435981&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,20 +755,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>422.93</v>
+        <v>423.99</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -791,14 +783,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:364700292#searchVariation=MLB21562641&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2620680945-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -808,25 +800,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>364.95</v>
+        <v>739.25</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -836,14 +828,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:364700292#searchVariation=MLB23456525&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3654810022-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -853,16 +845,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>126</v>
+        <v>466.39</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -881,14 +873,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:364700292#searchVariation=MLB27970249&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:364700292#searchVariation=MLB21320712&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -898,42 +890,42 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>736.61</v>
+        <v>132.5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:364700292#searchVariation=MLB24006449&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:364700292#searchVariation=MLB27687422&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -943,42 +935,42 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>499.46</v>
+        <v>498.19</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:364700292#searchVariation=MLB22144397&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683500517-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -988,20 +980,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>443.07</v>
+        <v>754.4400000000001</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1011,19 +1003,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:364700292#searchVariation=MLB21320712&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:364700292#searchVariation=MLB24154371&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1033,16 +1025,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>89</v>
+        <v>410.98</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1056,19 +1048,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:364700292#searchVariation=MLB32364344&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3471415308-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1078,18 +1070,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>402.79</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1102,14 +1098,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:364700292#searchVariation=MLB33435981&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:364700292#searchVariation=MLB28557249&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1119,20 +1115,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>845.87</v>
+        <v>457.29</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1147,14 +1143,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:364700292#searchVariation=MLB26091477&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3654416054-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1164,16 +1160,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>74</v>
+        <v>423.99</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1182,7 +1178,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1192,14 +1188,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:364700292#searchVariation=MLB28357019&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:364700292#searchVariation=MLB21621306&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1209,16 +1205,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>74</v>
+        <v>568.15</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1232,19 +1228,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:364700292#searchVariation=MLB30476096&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4663704978-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1254,18 +1250,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+        <v>525.75</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -1278,14 +1278,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:364700292#searchVariation=MLB30464905&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:364700292#searchVariation=MLB22144397&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1295,16 +1295,16 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
+          <t>Fonte Automotiva 120 Amper Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>126</v>
+        <v>710.1900000000001</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1318,19 +1318,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:364700292#searchVariation=MLB31403178&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2620703501-fonte-automotiva-120-amper-jfa-storm-red-line-cca-sci-smart-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1340,20 +1340,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Carregador Automotiva Jfa Storm 200a Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>523.63</v>
+        <v>847.99</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1363,19 +1363,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620720938-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683493405-fonte-carregador-automotiva-jfa-storm-200a-bivolt-voltimetro-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1385,42 +1385,42 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 Amper Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>674.6799999999999</v>
+        <v>519.39</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620703501-fonte-automotiva-120-amper-jfa-storm-red-line-cca-sci-smart-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:364700292#searchVariation=MLB21455208&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1430,42 +1430,42 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>390.43</v>
+        <v>775.38</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3471415308-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:364700292#searchVariation=MLB24006449&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1475,22 +1475,18 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>539.74</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>57.6</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1498,19 +1494,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4663704978-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1127195526-filtro-jfa-anti-ruido-p-toca-cd-dvd-radio-player-modulo-som-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1529,11 +1525,11 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>402.79</v>
+        <v>455.79</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1543,19 +1539,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620680945-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2620719084-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1565,20 +1561,20 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>473.28</v>
+        <v>126</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1588,19 +1584,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683500517-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:364700292#searchVariation=MLB27970249&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1610,42 +1606,42 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>443.07</v>
+        <v>847.99</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3355036433-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:364700292#searchVariation=MLB21348561&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1655,18 +1651,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>774.88</v>
-      </c>
-      <c r="F28" t="inlineStr"/>
+        <v>525.75</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1674,19 +1674,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3548300603-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4663589138-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1696,20 +1696,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>499.46</v>
+        <v>384.16</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1724,14 +1724,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4663589138-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:364700292#searchVariation=MLB23456525&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1741,20 +1741,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>433</v>
+        <v>445.19</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1764,19 +1764,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620719084-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3355098569-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1786,18 +1786,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
+          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>101.85</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
+        <v>443.15</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1805,19 +1809,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127185963-filtro-jfa-anti-ruido-p-toca-cd-dvd-radio-player-modulo-som-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3654445088-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1827,20 +1831,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
+          <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>716.71</v>
+        <v>126</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1850,19 +1854,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3324168339-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:364700292#searchVariation=MLB31403178&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1872,22 +1876,18 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa Storm 200a Bivolt Voltímetro</t>
+          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>101.85</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1895,19 +1895,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683493405-fonte-carregador-automotiva-jfa-storm-200a-bivolt-voltimetro-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1127185963-filtro-jfa-anti-ruido-p-toca-cd-dvd-radio-player-modulo-som-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1917,20 +1917,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>443.07</v>
+        <v>74</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1945,14 +1945,14 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2194676996-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:364700292#searchVariation=MLB30476096&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1962,42 +1962,38 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>434.42</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>736.61</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3654416054-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:364700292#searchVariation=MLB30464905&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2016,11 +2012,11 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>493.42</v>
+        <v>519.39</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2035,14 +2031,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620696614-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2620696614-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2052,16 +2048,16 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Controle Remoto Longa Distancia Jfa K600 Preto Tc Azul</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>138</v>
+        <v>466.39</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2075,19 +2071,19 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-tc-azul/p/MLB30188946?pdp_filters=seller_id:364700292#searchVariation=MLB30188946&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2194676996-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2097,20 +2093,20 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>681.83</v>
+        <v>74</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2125,14 +2121,14 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3324128025-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:364700292#searchVariation=MLB28357019&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2142,20 +2138,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
+          <t>2 Controle Longa Distancia Jfa K600 Cores Branco Tc Cinza</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>408.73</v>
+        <v>180.85</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2165,19 +2161,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3654445088-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1127192707-2-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2187,18 +2183,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="F40" t="inlineStr"/>
+        <v>890.39</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2206,19 +2206,19 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3548289499-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:364700292#searchVariation=MLB26091477&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2228,18 +2228,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
+          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="F41" t="inlineStr"/>
+        <v>815.67</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2247,19 +2251,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127195526-filtro-jfa-anti-ruido-p-toca-cd-dvd-radio-player-modulo-som-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2208214139-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2269,18 +2273,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Adaptador Fio Conversor Rca Remoto Slim Jfa 12v Conversor</t>
+          <t>Controle Remoto Longa Distancia Jfa K600 Preto Tc Azul</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>47.15</v>
-      </c>
-      <c r="F42" t="inlineStr"/>
+        <v>138</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2288,19 +2296,19 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127196874-adaptador-fio-conversor-rca-remoto-slim-jfa-12v-conversor-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-tc-azul/p/MLB30188946?pdp_filters=seller_id:364700292#searchVariation=MLB30188946&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2310,22 +2318,18 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Kit 2 Controle Remot Longa Distancia Jfa K600  Preto Laranja</t>
+          <t>Adaptador Fio Conversor Rca Remoto Slim Jfa 12v Conversor</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>180</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>47.15</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2333,19 +2337,19 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127188415-kit-2-controle-remot-longa-distancia-jfa-k600-preto-laranja-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1127196874-adaptador-fio-conversor-rca-remoto-slim-jfa-12v-conversor-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2355,22 +2359,18 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>774.88</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>736.61</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2378,19 +2378,19 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208214139-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3548289499-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2 Controle Longa Distancia Jfa K600 Cores Branco Tc Cinza</t>
+          <t>Kit Com 2 Controles Longa Distancia Jfa Preto Com Azul K600</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>180.85</v>
+        <v>168.6</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2423,19 +2423,19 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127192707-2-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://www.mercadolivre.com.br/kit-com-2-controles-longa-distancia-jfa-preto-com-azul-k600/p/MLB28724602?pdp_filters=seller_id:364700292#searchVariation=MLB28724602&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Kit Com 2 Controles Longa Distancia Jfa Preto Com Azul K600</t>
+          <t>2 Controle Longa Distancia Jfa K600 Cores Branco Tc Cinza</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2473,14 +2473,14 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-com-2-controles-longa-distancia-jfa-preto-com-azul-k600/p/MLB28724602?pdp_filters=seller_id:364700292#searchVariation=MLB28724602&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=cd048fd8-f364-49f6-b543-98b329aa3f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1127195780-2-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2490,35 +2490,1373 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>Controle remoto estéreo Jfa K600 Pioneer/Sony P Cor preto/azul</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>126</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-estereo-jfa-k600-pioneersony-p-cor-pretoazul/p/MLB27373663?pdp_filters=seller_id:364700292#searchVariation=MLB27373663&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=fd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>Controle Longa Distancia Jfa K600 ( Preto Com Cinza )</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="E47" t="n">
+      <c r="E48" t="n">
         <v>138</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127191372-controle-longa-distancia-jfa-k600-preto-com-cinza--_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcd048fd8-f364-49f6-b543-98b329aa3f11</t>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127191372-controle-longa-distancia-jfa-k600-preto-com-cinza--_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 ( Preto Com Cinza )</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>126</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127190889-controle-longa-distancia-jfa-k600-preto-com-cinza--_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza 600 Mts</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2044338483-controle-longa-distancia-jfa-k600-branco-com-cinza-600-mts-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Kit 2 Controle Jfa1200 Metros Longa Distancia Vermelho K1200</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127190203-kit-2-controle-jfa1200-metros-longa-distancia-vermelho-k1200-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Kit 2 Controle Remot Longa Distancia Jfa K600  Preto Laranja</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>180</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127188415-kit-2-controle-remot-longa-distancia-jfa-k600-preto-laranja-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Redline Wr Aparelho Original</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>153</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1913837885-controle-longa-distancia-jfa-redline-wr-aparelho-original-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>95</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127192385-filtro-jfa-anti-ruido-p-toca-cd-dvd-radio-player-modulo-som-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200 Preto E Laranja</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>78</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2753679837-controle-longa-distncia-jfa-k1200-preto-e-laranja-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200 Preto E Verde</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>78</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2753794512-controle-longa-distncia-jfa-k1200-preto-e-verde-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>153</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1902172117-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Kit 2 Controle Remoto Longa Distancia Jfa K600  Preto Azul</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>180.85</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127190463-kit-2-controle-remoto-longa-distancia-jfa-k600-preto-azul-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Kit 2 Controle Remot Longa Distancia Jfa K600  Preto Laranja</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>168.6</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127199378-kit-2-controle-remot-longa-distancia-jfa-k600-preto-laranja-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Bob Storm</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>657.1900000000001</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3343811622-fonte-carregador-automotiva-jfa-200a-bob-storm-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Bob Storm</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>731.39</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2730608831-fonte-carregador-automotiva-jfa-200a-bob-storm-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Universal Preto Tc Azul</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127181861-controle-longa-distancia-jfa-k600-universal-preto-tc-azul-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Adaptador Fio Conversor Rca Remoto Slim Jfa 12v Conversor</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1574234846-adaptador-fio-conversor-rca-remoto-slim-jfa-12v-conversor-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Redline Wr Aparelho Original</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>140</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1913824460-controle-longa-distancia-jfa-redline-wr-aparelho-original-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Adaptador Fio Conversor Rca Remoto Slim Jfa 12v</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>49</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1959256605-adaptador-fio-conversor-rca-remoto-slim-jfa-12v-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Jfa K600 Controle Longa Distancia Completo Preto Laranja</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>126</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127182550-jfa-k600-controle-longa-distancia-completo-preto-laranja-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Cores Branco Tc Cinza</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>112</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127196625-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>525.75</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2799729481-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Bob Storm</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>657.1900000000001</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2791794947-fonte-carregador-automotiva-jfa-200a-bob-storm-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 ( Preto Com Cinza )</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>138</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127191367-controle-longa-distancia-jfa-k600-preto-com-cinza--_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>568.15</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2799649671-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>739.25</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3324128025-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Storm 200a Bivolt Volt/amp</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>890.39</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2634617581-fonte-carregador-automotivo-jfa-storm-200a-bivolt-voltamp-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>498.19</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2194676992-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>775.38</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2208208506-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Storm 200a Bivolt Volt/amp</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>847.99</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2634591985-fonte-carregador-automotivo-jfa-storm-200a-bivolt-voltamp-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>bestonline.com.br</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Cores Branco Tc Cinza</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1127198582-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
         </is>
       </c>
     </row>

--- a/dados/bestonline.com.br.xlsx
+++ b/dados/bestonline.com.br.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,18 +493,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>774.88</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>590.5599999999999</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>NA</t>
@@ -517,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3548300603-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3288732631-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -534,42 +538,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>551.1900000000001</v>
+        <v>702.28</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620720938-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:364700292#wid=MLB4604003082&amp;sid=search&amp;searchVariation=MLB24154371&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -579,16 +583,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>89</v>
+        <v>555.9299999999999</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -602,19 +606,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:364700292#searchVariation=MLB32364344&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4663704978-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -624,16 +628,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>667.79</v>
+        <v>487.48</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -642,24 +646,24 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:364700292#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683500517-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -669,20 +673,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>466.39</v>
+        <v>552.35</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -692,19 +696,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:364700292#searchVariation=MLB21562641&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:364700292#wid=MLB4603936136&amp;sid=search&amp;searchVariation=MLB23998473&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -714,7 +718,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -723,7 +727,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>402.79</v>
+        <v>57.6</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
@@ -738,14 +742,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:364700292#searchVariation=MLB33435981&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1127195526-filtro-jfa-anti-ruido-p-toca-cd-dvd-radio-player-modulo-som-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -755,7 +759,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -764,16 +768,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>423.99</v>
+        <v>414.87</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -783,14 +787,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620680945-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:364700292#wid=MLB3191236126&amp;sid=search&amp;searchVariation=MLB21621306&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -800,16 +804,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>739.25</v>
+        <v>126</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -818,7 +822,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -828,14 +832,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3654810022-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:364700292#wid=MLB4285384460&amp;sid=search&amp;searchVariation=MLB27970249&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -845,20 +849,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 200a Bivolt Volt/amp</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>466.39</v>
+        <v>829.76</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -873,14 +877,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:364700292#searchVariation=MLB21320712&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2634591985-fonte-carregador-automotivo-jfa-storm-200a-bivolt-voltamp-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -890,20 +894,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>132.5</v>
+        <v>414.87</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -913,19 +917,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:364700292#searchVariation=MLB27687422&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2620680945-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -935,20 +939,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>498.19</v>
+        <v>514.45</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -958,19 +962,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683500517-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4663589138-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -980,16 +984,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>754.4400000000001</v>
+        <v>871.25</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1008,14 +1012,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:364700292#searchVariation=MLB24154371&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:364700292#wid=MLB3683506435&amp;sid=search&amp;searchVariation=MLB26091477&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1025,16 +1029,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>410.98</v>
+        <v>676.91</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1048,19 +1052,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3471415308-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:364700292#wid=MLB5058852052&amp;sid=search&amp;searchVariation=MLB26854417&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1070,16 +1074,16 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>140</v>
+        <v>456.36</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1093,19 +1097,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:364700292#searchVariation=MLB28557249&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:364700292#wid=MLB3355027581&amp;sid=search&amp;searchVariation=MLB21562641&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1115,16 +1119,16 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
+          <t>Fonte Automotiva 120 Amper Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>457.29</v>
+        <v>694.92</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1143,14 +1147,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3654416054-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2620703501-fonte-automotiva-120-amper-jfa-storm-red-line-cca-sci-smart-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1160,16 +1164,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>423.99</v>
+        <v>89</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1178,7 +1182,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1188,14 +1192,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:364700292#searchVariation=MLB21621306&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:364700292#wid=MLB4625382102&amp;sid=search&amp;searchVariation=MLB32364344&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1205,20 +1209,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+          <t>Fonte Carregador Automotiva Jfa Storm 200a Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>568.15</v>
+        <v>829.76</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1228,19 +1232,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4663704978-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683493405-fonte-carregador-automotiva-jfa-storm-200a-bivolt-voltimetro-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1250,42 +1254,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>525.75</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>101.85</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:364700292#searchVariation=MLB22144397&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1127185963-filtro-jfa-anti-ruido-p-toca-cd-dvd-radio-player-modulo-som-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1295,20 +1295,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 Amper Jfa Storm Red Line Cca Sci Smart</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>710.1900000000001</v>
+        <v>375.9</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1318,19 +1318,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620703501-fonte-automotiva-120-amper-jfa-storm-red-line-cca-sci-smart-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:364700292#wid=MLB4071453554&amp;sid=search&amp;searchVariation=MLB23456525&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1340,16 +1340,16 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa Storm 200a Bivolt Voltímetro</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>847.99</v>
+        <v>539.34</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1363,19 +1363,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683493405-fonte-carregador-automotiva-jfa-storm-200a-bivolt-voltimetro-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2620720938-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1385,16 +1385,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>519.39</v>
+        <v>74</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1413,14 +1413,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:364700292#searchVariation=MLB21455208&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:364700292#wid=MLB4436756292&amp;sid=search&amp;searchVariation=MLB30476096&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1430,16 +1430,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>775.38</v>
+        <v>445.98</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1448,24 +1448,24 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:364700292#searchVariation=MLB24006449&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2620719084-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1475,21 +1475,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
+        <v>653.4299999999999</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1499,14 +1503,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127195526-filtro-jfa-anti-ruido-p-toca-cd-dvd-radio-player-modulo-som-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:364700292#wid=MLB3240098832&amp;sid=search&amp;searchVariation=MLB21392652&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1516,20 +1520,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>455.79</v>
+        <v>456.36</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1539,19 +1543,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620719084-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:364700292#wid=MLB4663518286&amp;sid=search&amp;searchVariation=MLB21320712&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1561,25 +1565,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>126</v>
+        <v>829.76</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1589,14 +1593,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:364700292#searchVariation=MLB27970249&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:364700292#wid=MLB3343582028&amp;sid=search&amp;searchVariation=MLB21348561&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1606,16 +1610,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>847.99</v>
+        <v>738.22</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1624,24 +1628,24 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:364700292#searchVariation=MLB21348561&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3324168339-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1651,25 +1655,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>525.75</v>
+        <v>508.22</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1679,14 +1683,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4663589138-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:364700292#wid=MLB3192790451&amp;sid=search&amp;searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1696,16 +1700,16 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>384.16</v>
+        <v>447.45</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1719,19 +1723,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:364700292#searchVariation=MLB23456525&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3654416054-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1741,16 +1745,16 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Bob Storm</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>445.19</v>
+        <v>715.66</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1764,19 +1768,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3355098569-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2730608831-fonte-carregador-automotiva-jfa-200a-bob-storm-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1786,16 +1790,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>443.15</v>
+        <v>402.14</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1809,19 +1813,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3654445088-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3471415308-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1831,25 +1835,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>126</v>
+        <v>514.45</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1859,14 +1863,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:364700292#searchVariation=MLB31403178&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:364700292#wid=MLB3498544646&amp;sid=search&amp;searchVariation=MLB22144397&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1876,18 +1880,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>101.85</v>
-      </c>
-      <c r="F33" t="inlineStr"/>
+        <v>676.91</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1895,19 +1903,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127185963-filtro-jfa-anti-ruido-p-toca-cd-dvd-radio-player-modulo-som-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-5058826670-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1917,20 +1925,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>74</v>
+        <v>421</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1945,14 +1953,14 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:364700292#searchVariation=MLB30476096&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3654445088-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1962,38 +1970,42 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
+          <t>Controle Remoto Longa Distancia Jfa K600 Preto Tc Azul</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="F35" t="inlineStr"/>
+        <v>138</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:364700292#searchVariation=MLB30464905&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-tc-azul/p/MLB30188946?pdp_filters=seller_id:364700292#wid=MLB3624467431&amp;sid=search&amp;searchVariation=MLB30188946&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2003,25 +2015,25 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>519.39</v>
+        <v>758.71</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2031,14 +2043,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2620696614-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:364700292#wid=MLB3603881943&amp;sid=search&amp;searchVariation=MLB24006449&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2048,16 +2060,16 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>466.39</v>
+        <v>753.33</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2071,19 +2083,19 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2194676996-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-5058839586-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2093,25 +2105,21 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>74</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>736.61</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2121,14 +2129,14 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:364700292#searchVariation=MLB28357019&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:364700292#wid=MLB3589106093&amp;sid=search&amp;searchVariation=MLB30464905&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2138,7 +2146,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2 Controle Longa Distancia Jfa K600 Cores Branco Tc Cinza</t>
+          <t>Kit 2 Controle Remoto Longa Distancia Jfa K600  Preto Azul</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2166,14 +2174,14 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127192707-2-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1127190463-kit-2-controle-remoto-longa-distancia-jfa-k600-preto-azul-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2183,16 +2191,16 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t>Controle remoto estéreo Jfa K600 Pioneer/Sony P Cor preto/azul</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>890.39</v>
+        <v>126</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2206,19 +2214,19 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:364700292#searchVariation=MLB26091477&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-estereo-jfa-k600-pioneersony-p-cor-pretoazul/p/MLB27373663?pdp_filters=seller_id:364700292#wid=MLB4604021542&amp;sid=search&amp;searchVariation=MLB27373663&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2228,22 +2236,18 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+          <t>Adaptador Fio Conversor Rca Remoto Slim Jfa 12v Conversor</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>815.67</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>47.15</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2251,19 +2255,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208214139-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1127196874-adaptador-fio-conversor-rca-remoto-slim-jfa-12v-conversor-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2273,7 +2277,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Controle Remoto Longa Distancia Jfa K600 Preto Tc Azul</t>
+          <t>Kit Com 2 Controles Longa Distancia Jfa Preto Com Azul K600</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2282,7 +2286,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>138</v>
+        <v>168.6</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2296,19 +2300,19 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-tc-azul/p/MLB30188946?pdp_filters=seller_id:364700292#searchVariation=MLB30188946&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://www.mercadolivre.com.br/kit-com-2-controles-longa-distancia-jfa-preto-com-azul-k600/p/MLB28724602?pdp_filters=seller_id:364700292#wid=MLB4436731138&amp;sid=search&amp;searchVariation=MLB28724602&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2318,7 +2322,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Adaptador Fio Conversor Rca Remoto Slim Jfa 12v Conversor</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2327,7 +2331,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>47.15</v>
+        <v>739.26</v>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
@@ -2342,14 +2346,14 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127196874-adaptador-fio-conversor-rca-remoto-slim-jfa-12v-conversor-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3548289499-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2359,18 +2363,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="F44" t="inlineStr"/>
+        <v>435.62</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2383,14 +2391,14 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3548289499-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3355098569-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2400,22 +2408,18 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Kit Com 2 Controles Longa Distancia Jfa Preto Com Azul K600</t>
+          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>168.6</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2428,14 +2432,14 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-com-2-controles-longa-distancia-jfa-preto-com-azul-k600/p/MLB28724602?pdp_filters=seller_id:364700292#searchVariation=MLB28724602&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=bbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1127192385-filtro-jfa-anti-ruido-p-toca-cd-dvd-radio-player-modulo-som-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2445,22 +2449,18 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2 Controle Longa Distancia Jfa K600 Cores Branco Tc Cinza</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>168.6</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>774.88</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2468,19 +2468,19 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127195780-2-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3548300603-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2490,20 +2490,20 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Controle remoto estéreo Jfa K600 Pioneer/Sony P Cor preto/azul</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>126</v>
+        <v>702.28</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2518,14 +2518,14 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-estereo-jfa-k600-pioneersony-p-cor-pretoazul/p/MLB27373663?pdp_filters=seller_id:364700292#searchVariation=MLB27373663&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=fd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3324128025-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2535,20 +2535,20 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 ( Preto Com Cinza )</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>138</v>
+        <v>508.22</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2558,19 +2558,19 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127191372-controle-longa-distancia-jfa-k600-preto-com-cinza--_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbbbf994c-b410-4c9a-ac22-2e365efd5613</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2620696614-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2580,22 +2580,18 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 ( Preto Com Cinza )</t>
+          <t>Adaptador Fio Conversor Rca Remoto Slim Jfa 12v Conversor</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>126</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>49.5</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2603,1260 +2599,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127190889-controle-longa-distancia-jfa-k600-preto-com-cinza--_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza 600 Mts</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2044338483-controle-longa-distancia-jfa-k600-branco-com-cinza-600-mts-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Kit 2 Controle Jfa1200 Metros Longa Distancia Vermelho K1200</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127190203-kit-2-controle-jfa1200-metros-longa-distancia-vermelho-k1200-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Kit 2 Controle Remot Longa Distancia Jfa K600  Preto Laranja</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>180</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127188415-kit-2-controle-remot-longa-distancia-jfa-k600-preto-laranja-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa Redline Wr Aparelho Original</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>153</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1913837885-controle-longa-distancia-jfa-redline-wr-aparelho-original-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>95</v>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127192385-filtro-jfa-anti-ruido-p-toca-cd-dvd-radio-player-modulo-som-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K1200 Preto E Laranja</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>78</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2753679837-controle-longa-distncia-jfa-k1200-preto-e-laranja-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K1200 Preto E Verde</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>78</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2753794512-controle-longa-distncia-jfa-k1200-preto-e-verde-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>153</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1902172117-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Kit 2 Controle Remoto Longa Distancia Jfa K600  Preto Azul</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>180.85</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127190463-kit-2-controle-remoto-longa-distancia-jfa-k600-preto-azul-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Kit 2 Controle Remot Longa Distancia Jfa K600  Preto Laranja</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>168.6</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127199378-kit-2-controle-remot-longa-distancia-jfa-k600-preto-laranja-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Bob Storm</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>657.1900000000001</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3343811622-fonte-carregador-automotiva-jfa-200a-bob-storm-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Bob Storm</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>731.39</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2730608831-fonte-carregador-automotiva-jfa-200a-bob-storm-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa K600 Universal Preto Tc Azul</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>104.5</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127181861-controle-longa-distancia-jfa-k600-universal-preto-tc-azul-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Adaptador Fio Conversor Rca Remoto Slim Jfa 12v Conversor</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1574234846-adaptador-fio-conversor-rca-remoto-slim-jfa-12v-conversor-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa Redline Wr Aparelho Original</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>140</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1913824460-controle-longa-distancia-jfa-redline-wr-aparelho-original-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Adaptador Fio Conversor Rca Remoto Slim Jfa 12v</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>49</v>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1959256605-adaptador-fio-conversor-rca-remoto-slim-jfa-12v-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Jfa K600 Controle Longa Distancia Completo Preto Laranja</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>126</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127182550-jfa-k600-controle-longa-distancia-completo-preto-laranja-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa K600 Cores Branco Tc Cinza</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>112</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127196625-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>525.75</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2799729481-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Bob Storm</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>657.1900000000001</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2791794947-fonte-carregador-automotiva-jfa-200a-bob-storm-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa K600 ( Preto Com Cinza )</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>138</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127191367-controle-longa-distancia-jfa-k600-preto-com-cinza--_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>568.15</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2799649671-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>739.25</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3324128025-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 200a Bivolt Volt/amp</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>890.39</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2634617581-fonte-carregador-automotivo-jfa-storm-200a-bivolt-voltamp-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>498.19</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2194676992-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>775.38</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208208506-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 200a Bivolt Volt/amp</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>847.99</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2634591985-fonte-carregador-automotivo-jfa-storm-200a-bivolt-voltamp-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>bestonline.com.br</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa K600 Cores Branco Tc Cinza</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>104.5</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1127198582-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfd8be7b8-3351-40b1-a6aa-85da5dec5424</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1574234846-adaptador-fio-conversor-rca-remoto-slim-jfa-12v-conversor-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D25ddaf69-50e7-4022-bfe7-254c62f822a0</t>
         </is>
       </c>
     </row>
